--- a/meta/en/3-7-2.xlsx
+++ b/meta/en/3-7-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -101,9 +100,6 @@
     <t>3.7: By 2030, ensure universal access to sexual and reproductive health-care services, including for family planning, information and education, and the integration of reproductive health into national strategies and programmes</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7.2: Adolescent birth rate (aged 10-14 years; aged 15-19 years) per 1,000 women in that age group </t>
-  </si>
-  <si>
     <t>National Statistical Committee of the Kyrgyz Republic (Demographic Statistics Division)</t>
   </si>
   <si>
@@ -111,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jmaatkulova@stat.kg </t>
-  </si>
-  <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Annual number of births to females aged 15-19 years per 1,000 females in the respective age group.</t>
@@ -156,18 +146,35 @@
     <t>References to RLA and methodology: 
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men of the Kyrgyz Republic», «The standard of living of the population of the Kyrgyz Republic», «Health of population and healthcare in the Kyrgyz Republic available on the official website of NSC KR: http://www.stat.kg/ru/publications/</t>
+  </si>
+  <si>
+    <t>3.7.2: Adolescent birth rate (aged 15–19 years) per 1,000 women in that age group</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>0 (312) 32 55 46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,26 +241,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -563,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +615,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,8 +629,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,15 +654,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -713,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
